--- a/SCBAA/2020/Region 13.xlsx
+++ b/SCBAA/2020/Region 13.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mngx\thesis\SCBA\2020\Region XIII\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mngx\thesis\SCBAA\2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28391F05-8F97-4D59-83FE-B35CBFE12340}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1216F813-7DA3-45F7-8E23-8B2B2B3BAD5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="885" yWindow="630" windowWidth="17805" windowHeight="12930" activeTab="5" xr2:uid="{360BF9DE-B15B-43CE-9291-7E05B391F461}"/>
+    <workbookView xWindow="3180" yWindow="1005" windowWidth="14880" windowHeight="11070" xr2:uid="{360BF9DE-B15B-43CE-9291-7E05B391F461}"/>
   </bookViews>
   <sheets>
     <sheet name="Bayugan" sheetId="10" r:id="rId1"/>
@@ -24,6 +24,13 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1250,18 +1257,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="40" fontId="7" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="40" fontId="7" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="4" fontId="10" fillId="0" borderId="1" xfId="83" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="3" fillId="19" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -1274,6 +1269,18 @@
     </xf>
     <xf numFmtId="4" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="40" fontId="7" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="40" fontId="7" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="84">
@@ -1674,8 +1681,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1EECD59-C1E3-4A87-85F0-D27E48B54FFB}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1687,54 +1694,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="78" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
+      <c r="A2" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="69" t="s">
+      <c r="A3" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="69"/>
+      <c r="B3" s="78"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="78"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="69"/>
-      <c r="B4" s="69"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
+      <c r="A4" s="78"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
@@ -1748,22 +1755,22 @@
       <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="69" t="s">
+      <c r="A6" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="69"/>
-      <c r="C6" s="69"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="71" t="s">
+      <c r="B6" s="78"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="80" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="69"/>
-      <c r="B7" s="69"/>
-      <c r="C7" s="69"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="72"/>
+      <c r="A7" s="78"/>
+      <c r="B7" s="78"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="81"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
@@ -1833,7 +1840,6 @@
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="29">
-        <f>SUM(E11:E13)</f>
         <v>66904780.710000008</v>
       </c>
     </row>
@@ -1887,7 +1893,6 @@
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="29">
-        <f t="shared" ref="E19" si="0">SUM(E16:E18)</f>
         <v>40717854.969999999</v>
       </c>
     </row>
@@ -2078,7 +2083,6 @@
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="29">
-        <f>SUM(E14,E19,E21:E36)</f>
         <v>1299084466.6800001</v>
       </c>
     </row>
@@ -2635,7 +2639,6 @@
         <v>50</v>
       </c>
       <c r="E91" s="47">
-        <f>42302210.8+681988+89182961.46+3255513.85</f>
         <v>135422674.10999998</v>
       </c>
     </row>
@@ -2647,7 +2650,6 @@
         <v>51</v>
       </c>
       <c r="E92" s="50">
-        <f>6667592.83+795789.25+1993960</f>
         <v>9457342.0800000001</v>
       </c>
     </row>
@@ -2657,7 +2659,6 @@
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="34">
-        <f>SUM(E41:E92)</f>
         <v>925529446.6500001</v>
       </c>
     </row>
@@ -2832,7 +2833,6 @@
         <v>59</v>
       </c>
       <c r="E111" s="22">
-        <f>SUM(E95:E110)</f>
         <v>121819830.90000001</v>
       </c>
     </row>
@@ -2844,7 +2844,6 @@
       <c r="C112" s="17"/>
       <c r="D112" s="17"/>
       <c r="E112" s="21">
-        <f>SUM(E93,E111)</f>
         <v>1047349277.5500001</v>
       </c>
     </row>
@@ -2879,54 +2878,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="78" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
+      <c r="A2" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="69" t="s">
+      <c r="A3" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="69"/>
+      <c r="B3" s="78"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="78"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="69"/>
-      <c r="B4" s="69"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
+      <c r="A4" s="78"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
@@ -2940,22 +2939,22 @@
       <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="69" t="s">
+      <c r="A6" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="69"/>
-      <c r="C6" s="69"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="71" t="s">
+      <c r="B6" s="78"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="80" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="69"/>
-      <c r="B7" s="69"/>
-      <c r="C7" s="69"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="72"/>
+      <c r="A7" s="78"/>
+      <c r="B7" s="78"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="81"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
@@ -3194,7 +3193,7 @@
       <c r="D30" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E30" s="73">
+      <c r="E30" s="69">
         <v>13408359.869999999</v>
       </c>
     </row>
@@ -3815,7 +3814,7 @@
       <c r="D90" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="E90" s="74">
+      <c r="E90" s="70">
         <v>5418021.21</v>
       </c>
     </row>
@@ -4069,54 +4068,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="78" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
+      <c r="A2" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="69" t="s">
+      <c r="A3" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="69"/>
+      <c r="B3" s="78"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="78"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="69"/>
-      <c r="B4" s="69"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
+      <c r="A4" s="78"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
@@ -4130,22 +4129,22 @@
       <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="69" t="s">
+      <c r="A6" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="69"/>
-      <c r="C6" s="69"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="71" t="s">
+      <c r="B6" s="78"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="80" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="69"/>
-      <c r="B7" s="69"/>
-      <c r="C7" s="69"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="72"/>
+      <c r="A7" s="78"/>
+      <c r="B7" s="78"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="81"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
@@ -4181,7 +4180,7 @@
       <c r="D11" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="76">
+      <c r="E11" s="72">
         <v>64638134.469999999</v>
       </c>
     </row>
@@ -4192,7 +4191,7 @@
       <c r="D12" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="76">
+      <c r="E12" s="72">
         <v>304513643.72000003</v>
       </c>
     </row>
@@ -4203,7 +4202,7 @@
       <c r="D13" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="76">
+      <c r="E13" s="72">
         <v>20466048.359999999</v>
       </c>
     </row>
@@ -4235,7 +4234,7 @@
       <c r="D16" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="76">
+      <c r="E16" s="72">
         <v>180177699.97</v>
       </c>
     </row>
@@ -4246,7 +4245,7 @@
       <c r="D17" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E17" s="77">
+      <c r="E17" s="73">
         <v>56591397.100000001</v>
       </c>
     </row>
@@ -4257,7 +4256,7 @@
       <c r="D18" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E18" s="77">
+      <c r="E18" s="73">
         <v>84299213.5</v>
       </c>
     </row>
@@ -4289,7 +4288,7 @@
         <v>31</v>
       </c>
       <c r="D21" s="8"/>
-      <c r="E21" s="76">
+      <c r="E21" s="72">
         <v>1644255118</v>
       </c>
     </row>
@@ -4342,7 +4341,7 @@
       <c r="D26" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="E26" s="76">
+      <c r="E26" s="72">
         <v>141800</v>
       </c>
     </row>
@@ -4505,7 +4504,7 @@
       <c r="D42" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E42" s="78">
+      <c r="E42" s="74">
         <v>244948464.77000001</v>
       </c>
     </row>
@@ -4516,7 +4515,7 @@
       <c r="D43" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E43" s="78">
+      <c r="E43" s="74">
         <v>347821680.79999995</v>
       </c>
     </row>
@@ -4527,7 +4526,7 @@
       <c r="D44" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E44" s="78">
+      <c r="E44" s="74">
         <v>40791329.609999999</v>
       </c>
     </row>
@@ -4589,7 +4588,7 @@
       <c r="D50" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E50" s="79">
+      <c r="E50" s="75">
         <v>43644069.439999998</v>
       </c>
     </row>
@@ -4600,7 +4599,7 @@
       <c r="D51" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E51" s="79">
+      <c r="E51" s="75">
         <v>8231078.5499999998</v>
       </c>
     </row>
@@ -4611,7 +4610,7 @@
       <c r="D52" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E52" s="79">
+      <c r="E52" s="75">
         <v>35500</v>
       </c>
     </row>
@@ -4631,7 +4630,7 @@
       <c r="D54" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E54" s="79">
+      <c r="E54" s="75">
         <v>649901.59</v>
       </c>
     </row>
@@ -4642,7 +4641,7 @@
       <c r="D55" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E55" s="79">
+      <c r="E55" s="75">
         <v>1822061.4</v>
       </c>
     </row>
@@ -4673,7 +4672,7 @@
       <c r="D58" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E58" s="78">
+      <c r="E58" s="74">
         <v>5624843.9100000001</v>
       </c>
     </row>
@@ -4684,7 +4683,7 @@
       <c r="D59" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E59" s="78">
+      <c r="E59" s="74">
         <v>1447268.11</v>
       </c>
     </row>
@@ -4881,7 +4880,7 @@
       <c r="D78" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E78" s="78">
+      <c r="E78" s="74">
         <v>34369361.450000003</v>
       </c>
     </row>
@@ -4892,7 +4891,7 @@
       <c r="D79" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="E79" s="78">
+      <c r="E79" s="74">
         <v>2315203</v>
       </c>
     </row>
@@ -5005,7 +5004,7 @@
       <c r="D90" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="E90" s="78">
+      <c r="E90" s="74">
         <v>5853368.8799999999</v>
       </c>
     </row>
@@ -5068,7 +5067,7 @@
       <c r="D96" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E96" s="75">
+      <c r="E96" s="71">
         <v>259970999.38999999</v>
       </c>
       <c r="F96" s="10"/>
@@ -5112,7 +5111,7 @@
       <c r="D100" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E100" s="76">
+      <c r="E100" s="72">
         <v>2045800</v>
       </c>
     </row>
@@ -5130,7 +5129,7 @@
       <c r="D102" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E102" s="76">
+      <c r="E102" s="72">
         <v>117700</v>
       </c>
     </row>
@@ -5148,7 +5147,7 @@
       <c r="D104" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E104" s="76">
+      <c r="E104" s="72">
         <v>463000</v>
       </c>
     </row>
@@ -5166,7 +5165,7 @@
       <c r="D106" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E106" s="76">
+      <c r="E106" s="72">
         <v>57630950.590000004</v>
       </c>
     </row>
@@ -5184,7 +5183,7 @@
       <c r="D108" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E108" s="76">
+      <c r="E108" s="72">
         <v>403475764.13</v>
       </c>
     </row>
@@ -5259,54 +5258,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="78" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
+      <c r="A2" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="69" t="s">
+      <c r="A3" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="69"/>
+      <c r="B3" s="78"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="78"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="69"/>
-      <c r="B4" s="69"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
+      <c r="A4" s="78"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
@@ -5320,22 +5319,22 @@
       <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="69" t="s">
+      <c r="A6" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="69"/>
-      <c r="C6" s="69"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="71" t="s">
+      <c r="B6" s="78"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="80" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="69"/>
-      <c r="B7" s="69"/>
-      <c r="C7" s="69"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="72"/>
+      <c r="A7" s="78"/>
+      <c r="B7" s="78"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="81"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
@@ -6449,54 +6448,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="78" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
+      <c r="A2" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="69" t="s">
+      <c r="A3" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="69"/>
+      <c r="B3" s="78"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="78"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="69"/>
-      <c r="B4" s="69"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
+      <c r="A4" s="78"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
@@ -6510,22 +6509,22 @@
       <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="69" t="s">
+      <c r="A6" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="69"/>
-      <c r="C6" s="69"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="71" t="s">
+      <c r="B6" s="78"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="80" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="69"/>
-      <c r="B7" s="69"/>
-      <c r="C7" s="69"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="72"/>
+      <c r="A7" s="78"/>
+      <c r="B7" s="78"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="81"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
@@ -7261,7 +7260,7 @@
       <c r="D78" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E78" s="80">
+      <c r="E78" s="76">
         <v>23469504.100000001</v>
       </c>
     </row>
@@ -7626,7 +7625,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AF2697F-5935-4F01-B760-AEFEFA9AC08B}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A97" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="E111" sqref="E11:E111"/>
     </sheetView>
   </sheetViews>
@@ -7639,54 +7638,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="78" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
+      <c r="A2" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="69" t="s">
+      <c r="A3" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="69"/>
+      <c r="B3" s="78"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="78"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="69"/>
-      <c r="B4" s="69"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
+      <c r="A4" s="78"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
@@ -7700,22 +7699,22 @@
       <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="69" t="s">
+      <c r="A6" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="69"/>
-      <c r="C6" s="69"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="71" t="s">
+      <c r="B6" s="78"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="80" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="69"/>
-      <c r="B7" s="69"/>
-      <c r="C7" s="69"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="72"/>
+      <c r="A7" s="78"/>
+      <c r="B7" s="78"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="81"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
@@ -7751,7 +7750,7 @@
       <c r="D11" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="81">
+      <c r="E11" s="77">
         <v>17152669.399999999</v>
       </c>
     </row>
@@ -7762,7 +7761,7 @@
       <c r="D12" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="81">
+      <c r="E12" s="77">
         <v>37927829.939999998</v>
       </c>
     </row>
@@ -7773,7 +7772,7 @@
       <c r="D13" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="81">
+      <c r="E13" s="77">
         <v>850943.71</v>
       </c>
     </row>
@@ -7805,7 +7804,7 @@
       <c r="D16" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="81">
+      <c r="E16" s="77">
         <v>12196636.939999999</v>
       </c>
     </row>
@@ -7816,7 +7815,7 @@
       <c r="D17" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E17" s="81">
+      <c r="E17" s="77">
         <v>14034736.960000001</v>
       </c>
     </row>
@@ -7827,7 +7826,7 @@
       <c r="D18" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E18" s="81">
+      <c r="E18" s="77">
         <v>1992672.67</v>
       </c>
     </row>
@@ -7859,7 +7858,7 @@
         <v>31</v>
       </c>
       <c r="D21" s="8"/>
-      <c r="E21" s="81">
+      <c r="E21" s="77">
         <v>688331477</v>
       </c>
     </row>
@@ -7923,7 +7922,7 @@
       <c r="D27" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E27" s="81">
+      <c r="E27" s="77">
         <v>63327.27</v>
       </c>
     </row>
@@ -7954,7 +7953,7 @@
       <c r="D30" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E30" s="81">
+      <c r="E30" s="77">
         <v>8000000</v>
       </c>
     </row>
@@ -8075,7 +8074,7 @@
       <c r="D42" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E42" s="81">
+      <c r="E42" s="77">
         <v>140494052.19</v>
       </c>
     </row>
@@ -8086,7 +8085,7 @@
       <c r="D43" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E43" s="81">
+      <c r="E43" s="77">
         <v>485009409.08999997</v>
       </c>
     </row>
@@ -8327,7 +8326,7 @@
       <c r="D66" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E66" s="81">
+      <c r="E66" s="77">
         <v>637222.48</v>
       </c>
     </row>
@@ -8338,7 +8337,7 @@
       <c r="D67" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E67" s="81">
+      <c r="E67" s="77">
         <v>4532600.41</v>
       </c>
     </row>
@@ -8349,7 +8348,7 @@
       <c r="D68" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E68" s="81">
+      <c r="E68" s="77">
         <v>341129.27</v>
       </c>
     </row>
@@ -8380,7 +8379,7 @@
       <c r="D71" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E71" s="81">
+      <c r="E71" s="77">
         <v>225532</v>
       </c>
     </row>
@@ -8451,7 +8450,7 @@
       <c r="D78" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E78" s="80">
+      <c r="E78" s="76">
         <v>0</v>
       </c>
     </row>
@@ -8482,7 +8481,7 @@
       <c r="D81" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="E81" s="81">
+      <c r="E81" s="77">
         <v>24407644.27</v>
       </c>
     </row>
@@ -8493,7 +8492,7 @@
       <c r="D82" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="E82" s="81">
+      <c r="E82" s="77">
         <v>50853705.729999997</v>
       </c>
     </row>
